--- a/nodes_source_analyses/transport/transport_car_using_lpg.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_car_using_lpg.converter.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
   <si>
     <t>Source</t>
   </si>
@@ -112,12 +112,6 @@
     <t>free_co2_factor</t>
   </si>
   <si>
-    <t>initial_investment</t>
-  </si>
-  <si>
-    <t>fixed_operation_and_maintenance_costs_per_year</t>
-  </si>
-  <si>
     <t>technical_lifetime</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>quintel/etsource@0277ad226491f5aae44c874b298cbcf694d2f6cb</t>
   </si>
   <si>
-    <t>Fixed operational and maintenance costs per year</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fixed operational and maintenance </t>
   </si>
   <si>
@@ -200,9 +191,6 @@
   </si>
   <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>Cost</t>
   </si>
   <si>
     <t>Parameter</t>
@@ -292,21 +280,56 @@
   <si>
     <t>http://refman.et-model.com/publications/1928</t>
   </si>
+  <si>
+    <t>km/MJ</t>
+  </si>
+  <si>
+    <t>http://www.energieakkoordser.nl/~/media/files/energieakkoord/nieuwsberichten/2014/brandstofvisie/verzamelde-kennisnotities-brandstoffmix.ashx</t>
+  </si>
+  <si>
+    <t>http://refman.et-model.com/publications/2008</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>tno-cedelft-ecn: brandstofmix</t>
+  </si>
+  <si>
+    <t>MJ/km</t>
+  </si>
+  <si>
+    <t>p.183</t>
+  </si>
+  <si>
+    <t>cedelft-ecn-tno2</t>
+  </si>
+  <si>
+    <t>tno-cedelft-ecn2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -453,6 +476,10 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -736,428 +763,496 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="241">
+  <cellStyleXfs count="279">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="23" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="23" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="24" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="241">
+  <cellStyles count="279">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1310,6 +1405,25 @@
     <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1398,6 +1512,25 @@
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1582,6 +1715,44 @@
         <a:xfrm>
           <a:off x="4432300" y="3886200"/>
           <a:ext cx="7772400" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="6591300"/>
+          <a:ext cx="19431000" cy="9944100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2033,27 +2204,27 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="17"/>
+    <col min="1" max="1" width="3.125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="10.625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="23" customFormat="1">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+    <row r="1" spans="1:3" s="22" customFormat="1">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="20">
       <c r="A2" s="1"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1"/>
@@ -2066,16 +2237,16 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2099,106 +2270,106 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="58"/>
+      <c r="B9" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="57"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
-      <c r="B11" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>38</v>
+      <c r="B11" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" thickBot="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="59"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" thickBot="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="62" t="s">
-        <v>40</v>
+      <c r="B13" s="58"/>
+      <c r="C13" s="61" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="60" t="s">
-        <v>41</v>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
-      <c r="B16" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>43</v>
+      <c r="B16" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="62" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="64" t="s">
-        <v>44</v>
+      <c r="B17" s="58"/>
+      <c r="C17" s="63" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="65" t="s">
-        <v>45</v>
+      <c r="B18" s="58"/>
+      <c r="C18" s="64" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="66" t="s">
-        <v>46</v>
+      <c r="B19" s="58"/>
+      <c r="C19" s="65" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68" t="s">
-        <v>47</v>
+      <c r="B20" s="66"/>
+      <c r="C20" s="67" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="69" t="s">
-        <v>48</v>
+      <c r="B21" s="66"/>
+      <c r="C21" s="68" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="70" t="s">
-        <v>49</v>
+      <c r="B22" s="66"/>
+      <c r="C22" s="69" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="67"/>
-      <c r="C23" s="71" t="s">
-        <v>50</v>
+      <c r="B23" s="66"/>
+      <c r="C23" s="70" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2219,70 +2390,70 @@
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="30" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="30" customWidth="1"/>
-    <col min="3" max="3" width="33.875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="30" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="33.375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="2.5" style="30" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="30" customWidth="1"/>
-    <col min="10" max="10" width="3.75" style="30" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="30"/>
+    <col min="1" max="1" width="3.25" style="29" customWidth="1"/>
+    <col min="2" max="2" width="3.75" style="29" customWidth="1"/>
+    <col min="3" max="3" width="33.875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="29" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="29" customWidth="1"/>
+    <col min="6" max="6" width="4.625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="33.375" style="29" customWidth="1"/>
+    <col min="8" max="8" width="2.5" style="29" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="29" customWidth="1"/>
+    <col min="10" max="10" width="3.75" style="29" customWidth="1"/>
+    <col min="11" max="16384" width="10.625" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="2:11">
-      <c r="B2" s="111" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="B2" s="127" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="117"/>
-      <c r="C5" s="118"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="2:11" ht="16" thickBot="1">
-      <c r="D6" s="31"/>
+      <c r="D6" s="30"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="32"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -2290,33 +2461,33 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="33"/>
-    </row>
-    <row r="8" spans="2:11" s="20" customFormat="1">
-      <c r="B8" s="72"/>
-      <c r="C8" s="73" t="s">
+      <c r="J7" s="32"/>
+    </row>
+    <row r="8" spans="2:11" s="19" customFormat="1">
+      <c r="B8" s="71"/>
+      <c r="C8" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73" t="s">
+      <c r="F8" s="72"/>
+      <c r="G8" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73" t="s">
+      <c r="H8" s="72"/>
+      <c r="I8" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="75"/>
-    </row>
-    <row r="9" spans="2:11" s="20" customFormat="1">
-      <c r="B9" s="19"/>
+      <c r="J8" s="74"/>
+    </row>
+    <row r="9" spans="2:11" s="19" customFormat="1">
+      <c r="B9" s="18"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -2324,12 +2495,12 @@
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
-      <c r="B10" s="19"/>
+    <row r="10" spans="2:11" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B10" s="18"/>
       <c r="C10" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="27"/>
+        <v>49</v>
+      </c>
+      <c r="D10" s="26"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -2337,171 +2508,107 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
-      <c r="B11" s="19"/>
-      <c r="C11" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="16" t="s">
+    <row r="11" spans="2:11" s="19" customFormat="1" ht="16" thickBot="1">
+      <c r="B11" s="18"/>
+      <c r="C11" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="123">
+        <f>'Research data'!G7</f>
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="125" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="34"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="30"/>
+    </row>
+    <row r="13" spans="2:11" ht="16" thickBot="1">
+      <c r="B13" s="34"/>
+      <c r="C13" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="75"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="30"/>
+    </row>
+    <row r="14" spans="2:11" ht="16" thickBot="1">
+      <c r="B14" s="34"/>
+      <c r="C14" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="35">
+        <f>'Research data'!G10</f>
+        <v>13</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="78"/>
+    </row>
+    <row r="15" spans="2:11" ht="16" thickBot="1">
+      <c r="B15" s="34"/>
+      <c r="C15" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="29">
-        <v>0.44897959183673503</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="35"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="31"/>
-    </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
-      <c r="B13" s="35"/>
-      <c r="C13" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
-      <c r="B14" s="35"/>
-      <c r="C14" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="36">
-        <f>'Research data'!G10</f>
-        <v>19635</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="100" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="79"/>
-    </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
-      <c r="B15" s="35"/>
-      <c r="C15" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="80">
-        <f>'Research data'!G11</f>
-        <v>532.79999999999995</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="83" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="79"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="35"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="79"/>
-    </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
-      <c r="B17" s="35"/>
-      <c r="C17" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="79"/>
-    </row>
-    <row r="18" spans="2:10" ht="16" thickBot="1">
-      <c r="B18" s="35"/>
-      <c r="C18" s="34" t="s">
+      <c r="E15" s="35">
+        <v>0</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="36">
-        <f>'Research data'!G7</f>
-        <v>13</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="J18" s="79"/>
-    </row>
-    <row r="19" spans="2:10" ht="16" thickBot="1">
-      <c r="B19" s="35"/>
-      <c r="C19" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="36">
-        <v>0</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="79"/>
-    </row>
-    <row r="20" spans="2:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-    </row>
+      <c r="J15" s="78"/>
+    </row>
+    <row r="16" spans="2:11" ht="16" thickBot="1">
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="38"/>
+    </row>
+    <row r="20" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E5"/>
@@ -2553,205 +2660,288 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:M11"/>
+  <dimension ref="A2:P14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="85" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="85" customWidth="1"/>
-    <col min="3" max="3" width="33.125" style="85" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="85" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="85" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="85" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="85" customWidth="1"/>
-    <col min="8" max="8" width="2.625" style="85" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="85" customWidth="1"/>
-    <col min="10" max="10" width="2.875" style="85" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="85" customWidth="1"/>
-    <col min="12" max="12" width="2.5" style="85" customWidth="1"/>
-    <col min="13" max="13" width="83.75" style="85" customWidth="1"/>
-    <col min="14" max="16384" width="10.625" style="85"/>
+    <col min="1" max="1" width="4.375" style="83" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="83" customWidth="1"/>
+    <col min="3" max="3" width="33.125" style="83" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="83" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="83" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="83" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="83" customWidth="1"/>
+    <col min="8" max="8" width="2.625" style="83" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="83" customWidth="1"/>
+    <col min="10" max="10" width="2.875" style="83" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="83" customWidth="1"/>
+    <col min="12" max="12" width="2.5" style="83" customWidth="1"/>
+    <col min="13" max="13" width="9.375" style="83" customWidth="1"/>
+    <col min="14" max="14" width="2.5" style="83" customWidth="1"/>
+    <col min="15" max="15" width="83.75" style="83" customWidth="1"/>
+    <col min="16" max="16384" width="10.625" style="83"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="16" thickBot="1"/>
-    <row r="3" spans="2:13">
-      <c r="B3" s="86"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-    </row>
-    <row r="4" spans="2:13" s="20" customFormat="1">
-      <c r="B4" s="19"/>
-      <c r="C4" s="81" t="s">
-        <v>54</v>
+    <row r="2" spans="1:16" ht="16" thickBot="1"/>
+    <row r="3" spans="1:16">
+      <c r="B3" s="84"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+    </row>
+    <row r="4" spans="1:16" s="19" customFormat="1">
+      <c r="B4" s="18"/>
+      <c r="C4" s="79" t="s">
+        <v>50</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="18" customHeight="1">
-      <c r="B5" s="88"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="K5" s="90"/>
-      <c r="M5" s="84"/>
-    </row>
-    <row r="6" spans="2:13" ht="18" customHeight="1" thickBot="1">
-      <c r="B6" s="88"/>
+      <c r="G4" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="18" customHeight="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" ht="18" customHeight="1" thickBot="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="12" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="84"/>
-    </row>
-    <row r="7" spans="2:13" ht="16" thickBot="1">
-      <c r="B7" s="88"/>
-      <c r="C7" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="93" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="94">
-        <f>ROUND(13,0)</f>
-        <v>13</v>
-      </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="94">
-        <f>Notes!D9</f>
-        <v>13</v>
-      </c>
-      <c r="L7" s="90"/>
-      <c r="M7" s="84"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="88"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="84"/>
-    </row>
-    <row r="9" spans="2:13" ht="16" thickBot="1">
-      <c r="B9" s="88"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="109"/>
+      <c r="P6" s="110"/>
+    </row>
+    <row r="7" spans="1:16" ht="16" thickBot="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="111" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="112" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="113">
+        <f>M7</f>
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="115"/>
+      <c r="M7" s="114">
+        <f>Notes!D57</f>
+        <v>0.5</v>
+      </c>
+      <c r="O7" s="108"/>
+      <c r="P7" s="110"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="B8" s="86"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="O8" s="82"/>
+    </row>
+    <row r="9" spans="1:16" ht="16" thickBot="1">
+      <c r="B9" s="86"/>
       <c r="C9" s="12" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="84" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="16" thickBot="1">
-      <c r="B10" s="88"/>
-      <c r="C10" s="96" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="96" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="88"/>
+      <c r="N9" s="88"/>
+      <c r="O9" s="82"/>
+    </row>
+    <row r="10" spans="1:16" ht="16" thickBot="1">
+      <c r="B10" s="86"/>
+      <c r="C10" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="92">
+        <f>ROUND(13,0)</f>
+        <v>13</v>
+      </c>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="92">
+        <f>Notes!D9</f>
+        <v>13</v>
+      </c>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="88"/>
+      <c r="O10" s="82"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="B11" s="86"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="88"/>
+      <c r="O11" s="82"/>
+    </row>
+    <row r="12" spans="1:16" ht="16" thickBot="1">
+      <c r="B12" s="86"/>
+      <c r="C12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="93"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="93"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="82" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16" thickBot="1">
+      <c r="B13" s="86"/>
+      <c r="C13" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="97">
+      <c r="G13" s="95">
         <f>ROUND(19635,2)</f>
         <v>19635</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="97">
+      <c r="H13" s="11"/>
+      <c r="I13" s="95">
         <f>17643.06+Notes!D27</f>
         <v>19893.060000000001</v>
       </c>
-      <c r="J10" s="90"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="109" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="16" thickBot="1">
-      <c r="B11" s="88"/>
-      <c r="C11" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="93" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="99">
+      <c r="J13" s="88"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="106" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="16" thickBot="1">
+      <c r="B14" s="86"/>
+      <c r="C14" s="94" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="97">
         <f>ROUND(532.8,2)</f>
         <v>532.79999999999995</v>
       </c>
-      <c r="H11" s="95"/>
-      <c r="I11" s="99">
+      <c r="H14" s="93"/>
+      <c r="I14" s="97">
         <f>444+(Notes!D33*444)</f>
         <v>532.79999999999995</v>
       </c>
-      <c r="J11" s="90"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="84" t="s">
-        <v>58</v>
+      <c r="J14" s="88"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="82" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2770,195 +2960,241 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:J12"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="41" customWidth="1"/>
-    <col min="2" max="2" width="4.375" style="41" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="41" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="41" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="41" customWidth="1"/>
-    <col min="6" max="7" width="13.25" style="41" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="47" customWidth="1"/>
-    <col min="9" max="9" width="33" style="47" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="41" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="41"/>
+    <col min="1" max="1" width="3.375" style="40" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="40" customWidth="1"/>
+    <col min="3" max="3" width="25.25" style="40" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="40" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="40" customWidth="1"/>
+    <col min="6" max="7" width="13.25" style="40" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="46" customWidth="1"/>
+    <col min="9" max="9" width="33" style="46" customWidth="1"/>
+    <col min="10" max="10" width="98.375" style="40" customWidth="1"/>
+    <col min="11" max="16384" width="33.125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="43"/>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="44"/>
-      <c r="C3" s="49" t="s">
+    <row r="1" spans="1:10" ht="16" thickBot="1"/>
+    <row r="2" spans="1:10">
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="43"/>
+      <c r="C3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="45"/>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="82"/>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="52"/>
-      <c r="C5" s="53" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="80"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="51"/>
+      <c r="C5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="54" t="s">
+      <c r="G5" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="43"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="43"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="44">
+        <v>2010</v>
+      </c>
+      <c r="G7" s="44">
+        <v>2010</v>
+      </c>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="107" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="43"/>
+      <c r="C8" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="80"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="43"/>
+      <c r="C9" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="80"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="43"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="80"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="43"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="44">
+        <v>2013</v>
+      </c>
+      <c r="G11" s="44">
+        <v>2012</v>
+      </c>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="43"/>
+      <c r="C12" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="80"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="119"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="119"/>
+      <c r="I13" s="119"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="119"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="121" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="119">
+        <v>2014</v>
+      </c>
+      <c r="G14" s="119">
+        <v>2014</v>
+      </c>
+      <c r="H14" s="126">
+        <v>42326</v>
+      </c>
+      <c r="I14" s="119" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="73" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="44"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="44"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="45">
-        <v>2010</v>
-      </c>
-      <c r="G7" s="45">
-        <v>2010</v>
-      </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="110" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="44"/>
-      <c r="C8" s="55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="82"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="44"/>
-      <c r="C9" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="82"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="44"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="82"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="44"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="45">
-        <v>2013</v>
-      </c>
-      <c r="G11" s="45">
-        <v>2012</v>
-      </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="J11" s="82" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="44"/>
-      <c r="C12" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="82"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="119"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2973,514 +3209,599 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M34"/>
+  <dimension ref="A1:M57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="101" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="101" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="101" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="101"/>
+    <col min="1" max="1" width="4.875" style="98" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="98" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="98" customWidth="1"/>
+    <col min="4" max="16384" width="10.625" style="98"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="16" thickBot="1"/>
     <row r="2" spans="2:13">
-      <c r="B2" s="103"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="105"/>
-    </row>
-    <row r="3" spans="2:13" s="20" customFormat="1">
-      <c r="B3" s="72"/>
-      <c r="C3" s="73" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
+    </row>
+    <row r="3" spans="2:13" s="19" customFormat="1">
+      <c r="B3" s="71"/>
+      <c r="C3" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="74"/>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="103"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="104"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="103"/>
+      <c r="C5" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="104"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="103"/>
+      <c r="C6" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="104"/>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="103"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="104"/>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="103"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="104"/>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="103"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99">
+        <v>13</v>
+      </c>
+      <c r="E9" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="104"/>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="103"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="104"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="103"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="104"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="103"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="104"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="103"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="104"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="103"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="104"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="103"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="104"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="103"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="104"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="103"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="104"/>
+    </row>
+    <row r="18" spans="2:13">
+      <c r="B18" s="103"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="104"/>
+    </row>
+    <row r="19" spans="2:13">
+      <c r="B19" s="103"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="104"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="103"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="104"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="103"/>
+      <c r="C21" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="104"/>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="B22" s="103"/>
+      <c r="C22" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="75"/>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="B4" s="106"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="107"/>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" s="106"/>
-      <c r="C5" s="102" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="107"/>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="106"/>
-      <c r="C6" s="102" t="s">
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="104"/>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="B23" s="103"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="104"/>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="B24" s="103"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="104"/>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="B25" s="103"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="104"/>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="B26" s="103"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="107"/>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="106"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="107"/>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" s="106"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="107"/>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="106"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102">
-        <v>13</v>
-      </c>
-      <c r="E9" s="102" t="s">
+      <c r="E26" s="99" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="104"/>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="103"/>
+      <c r="C27" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="107"/>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="106"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="107"/>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="106"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="102"/>
-      <c r="M11" s="107"/>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="106"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="102"/>
-      <c r="M12" s="107"/>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="106"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="107"/>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="106"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="102"/>
-      <c r="M14" s="107"/>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="106"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="107"/>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="106"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="102"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="107"/>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" s="106"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="107"/>
-    </row>
-    <row r="18" spans="2:13">
-      <c r="B18" s="106"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="107"/>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19" s="106"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="102"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="107"/>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20" s="106"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="107"/>
-    </row>
-    <row r="21" spans="2:13">
-      <c r="B21" s="106"/>
-      <c r="C21" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="107"/>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="B22" s="106"/>
-      <c r="C22" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="107"/>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="B23" s="106"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="102"/>
-      <c r="M23" s="107"/>
-    </row>
-    <row r="24" spans="2:13">
-      <c r="B24" s="106"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="107"/>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="B25" s="106"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="M25" s="107"/>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26" s="106"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="102"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="102"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="107"/>
-    </row>
-    <row r="27" spans="2:13">
-      <c r="B27" s="106"/>
-      <c r="C27" s="102" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="102">
+      <c r="D27" s="99">
         <f>AVERAGE(1500,3000)</f>
         <v>2250</v>
       </c>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="102"/>
-      <c r="L27" s="102"/>
-      <c r="M27" s="107"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="104"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="106"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="107"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="104"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="106"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="102"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="107"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="104"/>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="106"/>
-      <c r="C30" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="102"/>
-      <c r="L30" s="102"/>
-      <c r="M30" s="107"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="104"/>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="106"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="102"/>
-      <c r="K31" s="102"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="107"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="99"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="99"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="104"/>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="106"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="102"/>
-      <c r="L32" s="102"/>
-      <c r="M32" s="107"/>
-    </row>
-    <row r="33" spans="2:13">
-      <c r="B33" s="106"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="108">
+      <c r="B32" s="103"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99"/>
+      <c r="E32" s="99"/>
+      <c r="F32" s="99"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="104"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="B33" s="103"/>
+      <c r="C33" s="99"/>
+      <c r="D33" s="105">
         <v>0.2</v>
       </c>
-      <c r="E33" s="108"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="102"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="107"/>
-    </row>
-    <row r="34" spans="2:13">
-      <c r="B34" s="106"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="102"/>
-      <c r="L34" s="102"/>
-      <c r="M34" s="107"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="104"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="B34" s="103"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="99"/>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="99"/>
+      <c r="M34" s="104"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="B35" s="103"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="B36" s="103"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="B37" s="103"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="B38" s="103"/>
+      <c r="C38" s="119" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="B39" s="103"/>
+      <c r="C39" s="109" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="B40" s="103"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="B41" s="103"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="117"/>
+      <c r="B42" s="118"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="117"/>
+      <c r="B43" s="118"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="117"/>
+      <c r="B44" s="118"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="117"/>
+      <c r="B45" s="118"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="117"/>
+      <c r="B46" s="118"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="117"/>
+      <c r="B47" s="118"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="117"/>
+      <c r="B48" s="118"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="117"/>
+      <c r="B49" s="118"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="117"/>
+      <c r="B50" s="118"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="117"/>
+      <c r="B51" s="118"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="D56" s="98">
+        <v>2</v>
+      </c>
+      <c r="E56" s="109" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="D57" s="98">
+        <f>1/D56</f>
+        <v>0.5</v>
+      </c>
+      <c r="E57" s="109" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/nodes_source_analyses/transport/transport_car_using_lpg.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_car_using_lpg.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/transport/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -185,9 +193,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Technical</t>
@@ -307,6 +312,10 @@
   <si>
     <t>tno-cedelft-ecn2</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -317,7 +326,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -449,11 +458,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1101,31 +1105,31 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1141,7 +1145,7 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1203,52 +1207,52 @@
     <xf numFmtId="166" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="22" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="23" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="24" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="23" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1535,80 +1539,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>88900</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1765,7 +1704,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2206,32 +2145,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="16"/>
+    <col min="1" max="1" width="3.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="22" customFormat="1">
+    <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -2240,7 +2179,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>31</v>
@@ -2249,7 +2188,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>14</v>
@@ -2258,29 +2197,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="56" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="57"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="58"/>
       <c r="C10" s="59"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="58" t="s">
         <v>34</v>
@@ -2289,33 +2228,33 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="58"/>
       <c r="C12" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="58"/>
       <c r="C13" s="61" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="58"/>
       <c r="C14" s="59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="58"/>
       <c r="C15" s="59"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="58" t="s">
         <v>39</v>
@@ -2324,49 +2263,49 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="58"/>
       <c r="C17" s="63" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="58"/>
       <c r="C18" s="64" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="58"/>
       <c r="C19" s="65" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="66"/>
       <c r="C20" s="67" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="66"/>
       <c r="C21" s="68" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="66"/>
       <c r="C22" s="69" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="66"/>
       <c r="C23" s="70" t="s">
         <v>47</v>
@@ -2375,84 +2314,79 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="29" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="29" customWidth="1"/>
-    <col min="3" max="3" width="33.875" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="29" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="29" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="29" customWidth="1"/>
-    <col min="7" max="7" width="33.375" style="29" customWidth="1"/>
-    <col min="8" max="8" width="2.5" style="29" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="29" customWidth="1"/>
-    <col min="10" max="10" width="3.75" style="29" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="29"/>
+    <col min="1" max="1" width="3.28515625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="33.42578125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" style="29" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" style="29" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="127" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C2" s="128"/>
       <c r="D2" s="128"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="30"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
       <c r="G2" s="30"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="130"/>
       <c r="C3" s="131"/>
       <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="30"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="132"/>
       <c r="G3" s="30"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="130"/>
       <c r="C4" s="131"/>
       <c r="D4" s="131"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="30"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="132"/>
       <c r="G4" s="30"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="133"/>
       <c r="C5" s="134"/>
       <c r="D5" s="134"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="30"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="135"/>
       <c r="G5" s="30"/>
     </row>
-    <row r="6" spans="2:11" ht="16" thickBot="1">
+    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="31"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -2463,7 +2397,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="2:11" s="19" customFormat="1">
+    <row r="8" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="71"/>
       <c r="C8" s="72" t="s">
         <v>20</v>
@@ -2484,7 +2418,7 @@
       </c>
       <c r="J8" s="74"/>
     </row>
-    <row r="9" spans="2:11" s="19" customFormat="1">
+    <row r="9" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="18"/>
       <c r="C9" s="13"/>
       <c r="D9" s="26"/>
@@ -2495,10 +2429,10 @@
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="2:11" s="19" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="13"/>
@@ -2508,13 +2442,13 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="2:11" s="19" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="39" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="123">
         <f>'Research data'!G7</f>
@@ -2522,15 +2456,15 @@
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="124" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H11" s="25"/>
       <c r="I11" s="125" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="34"/>
       <c r="C12" s="30"/>
       <c r="D12" s="75"/>
@@ -2542,7 +2476,7 @@
       <c r="J12" s="78"/>
       <c r="K12" s="30"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="34"/>
       <c r="C13" s="13" t="s">
         <v>5</v>
@@ -2556,7 +2490,7 @@
       <c r="J13" s="78"/>
       <c r="K13" s="30"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="34"/>
       <c r="C14" s="33" t="s">
         <v>23</v>
@@ -2574,11 +2508,11 @@
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="81" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J14" s="78"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="34"/>
       <c r="C15" s="33" t="s">
         <v>22</v>
@@ -2597,7 +2531,7 @@
       </c>
       <c r="J15" s="78"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="36"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
@@ -2608,50 +2542,13 @@
       <c r="I16" s="37"/>
       <c r="J16" s="38"/>
     </row>
-    <row r="20" ht="15" customHeight="1"/>
+    <row r="20" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E5"/>
+    <mergeCell ref="B2:F5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>304800</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>88900</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>76200</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2666,28 +2563,27 @@
       <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="83" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="83" customWidth="1"/>
-    <col min="3" max="3" width="33.125" style="83" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="83" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="83" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="83" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="83" customWidth="1"/>
-    <col min="8" max="8" width="2.625" style="83" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="83" customWidth="1"/>
-    <col min="10" max="10" width="2.875" style="83" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="83" customWidth="1"/>
-    <col min="12" max="12" width="2.5" style="83" customWidth="1"/>
-    <col min="13" max="13" width="9.375" style="83" customWidth="1"/>
-    <col min="14" max="14" width="2.5" style="83" customWidth="1"/>
-    <col min="15" max="15" width="83.75" style="83" customWidth="1"/>
-    <col min="16" max="16384" width="10.625" style="83"/>
+    <col min="1" max="2" width="4.42578125" style="83" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="83" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="83" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="83" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="83" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="83" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" style="83" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="83" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="83" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="83" customWidth="1"/>
+    <col min="12" max="12" width="2.42578125" style="83" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" style="83" customWidth="1"/>
+    <col min="14" max="14" width="2.42578125" style="83" customWidth="1"/>
+    <col min="15" max="15" width="83.7109375" style="83" customWidth="1"/>
+    <col min="16" max="16384" width="10.7109375" style="83"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="16" thickBot="1"/>
-    <row r="3" spans="1:16">
+    <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" s="84"/>
       <c r="C3" s="85"/>
       <c r="D3" s="85"/>
@@ -2703,10 +2599,10 @@
       <c r="N3" s="85"/>
       <c r="O3" s="85"/>
     </row>
-    <row r="4" spans="1:16" s="19" customFormat="1">
+    <row r="4" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="18"/>
       <c r="C4" s="79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2718,22 +2614,22 @@
       </c>
       <c r="H4" s="79"/>
       <c r="I4" s="79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4" s="79"/>
       <c r="K4" s="79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L4" s="79"/>
       <c r="M4" s="79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N4" s="79"/>
       <c r="O4" s="79" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="18" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="18"/>
       <c r="C5" s="9"/>
@@ -2751,11 +2647,11 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
     </row>
-    <row r="6" spans="1:16" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="18"/>
       <c r="C6" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -2771,7 +2667,7 @@
       <c r="O6" s="109"/>
       <c r="P6" s="110"/>
     </row>
-    <row r="7" spans="1:16" ht="16" thickBot="1">
+    <row r="7" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="18"/>
       <c r="C7" s="111" t="s">
@@ -2780,7 +2676,7 @@
       <c r="D7" s="111"/>
       <c r="E7" s="111"/>
       <c r="F7" s="112" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="113">
         <f>M7</f>
@@ -2794,7 +2690,7 @@
       <c r="O7" s="108"/>
       <c r="P7" s="110"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B8" s="86"/>
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
@@ -2808,7 +2704,7 @@
       <c r="M8" s="88"/>
       <c r="O8" s="82"/>
     </row>
-    <row r="9" spans="1:16" ht="16" thickBot="1">
+    <row r="9" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="86"/>
       <c r="C9" s="12" t="s">
         <v>5</v>
@@ -2826,7 +2722,7 @@
       <c r="N9" s="88"/>
       <c r="O9" s="82"/>
     </row>
-    <row r="10" spans="1:16" ht="16" thickBot="1">
+    <row r="10" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="86"/>
       <c r="C10" s="90" t="s">
         <v>3</v>
@@ -2852,7 +2748,7 @@
       <c r="N10" s="88"/>
       <c r="O10" s="82"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B11" s="86"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -2868,10 +2764,10 @@
       <c r="N11" s="88"/>
       <c r="O11" s="82"/>
     </row>
-    <row r="12" spans="1:16" ht="16" thickBot="1">
+    <row r="12" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="86"/>
       <c r="C12" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -2885,13 +2781,13 @@
       <c r="M12" s="93"/>
       <c r="N12" s="88"/>
       <c r="O12" s="82" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="16" thickBot="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="86"/>
       <c r="C13" s="94" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -2913,13 +2809,13 @@
       <c r="M13" s="89"/>
       <c r="N13" s="89"/>
       <c r="O13" s="106" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="16" thickBot="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="86"/>
       <c r="C14" s="94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="96"/>
       <c r="E14" s="96"/>
@@ -2941,17 +2837,12 @@
       <c r="M14" s="93"/>
       <c r="N14" s="89"/>
       <c r="O14" s="82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2966,22 +2857,22 @@
       <selection activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="40" customWidth="1"/>
-    <col min="2" max="2" width="4.375" style="40" customWidth="1"/>
-    <col min="3" max="3" width="25.25" style="40" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="40" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="40" customWidth="1"/>
-    <col min="6" max="7" width="13.25" style="40" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="40" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="46" customWidth="1"/>
     <col min="9" max="9" width="33" style="46" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="40" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="40"/>
+    <col min="10" max="10" width="98.42578125" style="40" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" thickBot="1"/>
-    <row r="2" spans="1:10">
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="41"/>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -2992,7 +2883,7 @@
       <c r="I2" s="47"/>
       <c r="J2" s="42"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="43"/>
       <c r="C3" s="48" t="s">
         <v>16</v>
@@ -3005,7 +2896,7 @@
       <c r="I3" s="49"/>
       <c r="J3" s="44"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="43"/>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
@@ -3016,7 +2907,7 @@
       <c r="I4" s="50"/>
       <c r="J4" s="80"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="51"/>
       <c r="C5" s="52" t="s">
         <v>17</v>
@@ -3031,19 +2922,19 @@
         <v>18</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="53" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="53" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J5" s="72" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="43"/>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
@@ -3054,11 +2945,11 @@
       <c r="I6" s="49"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="43"/>
       <c r="C7" s="54"/>
       <c r="D7" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="44" t="s">
         <v>7</v>
@@ -3071,13 +2962,13 @@
       </c>
       <c r="H7" s="44"/>
       <c r="I7" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="107" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="43"/>
       <c r="C8" s="54" t="s">
         <v>6</v>
@@ -3090,7 +2981,7 @@
       <c r="I8" s="44"/>
       <c r="J8" s="80"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="43"/>
       <c r="C9" s="54" t="s">
         <v>26</v>
@@ -3103,7 +2994,7 @@
       <c r="I9" s="44"/>
       <c r="J9" s="80"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="43"/>
       <c r="C10" s="55"/>
       <c r="D10" s="44"/>
@@ -3114,11 +3005,11 @@
       <c r="I10" s="44"/>
       <c r="J10" s="80"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="43"/>
       <c r="C11" s="54"/>
       <c r="D11" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="44" t="s">
         <v>7</v>
@@ -3131,13 +3022,13 @@
       </c>
       <c r="H11" s="44"/>
       <c r="I11" s="44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J11" s="80" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="43"/>
       <c r="C12" s="54" t="s">
         <v>3</v>
@@ -3150,21 +3041,21 @@
       <c r="I12" s="44"/>
       <c r="J12" s="80"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="119"/>
       <c r="B13" s="120"/>
       <c r="C13" s="121"/>
       <c r="D13" s="119"/>
       <c r="I13" s="119"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="119"/>
       <c r="B14" s="120"/>
       <c r="C14" s="121" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="119" t="s">
         <v>7</v>
@@ -3179,13 +3070,13 @@
         <v>42326</v>
       </c>
       <c r="I14" s="119" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J14" s="40" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="119"/>
       <c r="B15" s="119"/>
       <c r="C15" s="119"/>
@@ -3199,11 +3090,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3215,16 +3101,16 @@
       <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="98" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="98" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="98" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="98"/>
+    <col min="1" max="1" width="4.85546875" style="98" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="98" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="98" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="98"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16" thickBot="1"/>
-    <row r="2" spans="2:13">
+    <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="100"/>
       <c r="C2" s="101"/>
       <c r="D2" s="101"/>
@@ -3238,13 +3124,13 @@
       <c r="L2" s="101"/>
       <c r="M2" s="102"/>
     </row>
-    <row r="3" spans="2:13" s="19" customFormat="1">
+    <row r="3" spans="2:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="71"/>
       <c r="C3" s="72" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="72"/>
       <c r="F3" s="72"/>
@@ -3256,7 +3142,7 @@
       <c r="L3" s="72"/>
       <c r="M3" s="74"/>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="103"/>
       <c r="C4" s="99"/>
       <c r="D4" s="99"/>
@@ -3270,10 +3156,10 @@
       <c r="L4" s="99"/>
       <c r="M4" s="104"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="103"/>
       <c r="C5" s="99" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="99"/>
       <c r="E5" s="99"/>
@@ -3286,10 +3172,10 @@
       <c r="L5" s="99"/>
       <c r="M5" s="104"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="103"/>
       <c r="C6" s="99" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="99"/>
       <c r="E6" s="99"/>
@@ -3302,7 +3188,7 @@
       <c r="L6" s="99"/>
       <c r="M6" s="104"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="103"/>
       <c r="C7" s="99"/>
       <c r="D7" s="99"/>
@@ -3316,7 +3202,7 @@
       <c r="L7" s="99"/>
       <c r="M7" s="104"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="103"/>
       <c r="C8" s="99"/>
       <c r="D8" s="99"/>
@@ -3330,14 +3216,14 @@
       <c r="L8" s="99"/>
       <c r="M8" s="104"/>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="103"/>
       <c r="C9" s="99"/>
       <c r="D9" s="99">
         <v>13</v>
       </c>
       <c r="E9" s="99" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9" s="99"/>
       <c r="G9" s="99"/>
@@ -3348,7 +3234,7 @@
       <c r="L9" s="99"/>
       <c r="M9" s="104"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="103"/>
       <c r="C10" s="99"/>
       <c r="D10" s="99"/>
@@ -3362,7 +3248,7 @@
       <c r="L10" s="99"/>
       <c r="M10" s="104"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="103"/>
       <c r="C11" s="99"/>
       <c r="D11" s="99"/>
@@ -3376,7 +3262,7 @@
       <c r="L11" s="99"/>
       <c r="M11" s="104"/>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="103"/>
       <c r="C12" s="99"/>
       <c r="D12" s="99"/>
@@ -3390,7 +3276,7 @@
       <c r="L12" s="99"/>
       <c r="M12" s="104"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="103"/>
       <c r="C13" s="99"/>
       <c r="D13" s="99"/>
@@ -3404,7 +3290,7 @@
       <c r="L13" s="99"/>
       <c r="M13" s="104"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="103"/>
       <c r="C14" s="99"/>
       <c r="D14" s="99"/>
@@ -3418,7 +3304,7 @@
       <c r="L14" s="99"/>
       <c r="M14" s="104"/>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="103"/>
       <c r="C15" s="99"/>
       <c r="D15" s="99"/>
@@ -3432,7 +3318,7 @@
       <c r="L15" s="99"/>
       <c r="M15" s="104"/>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="103"/>
       <c r="C16" s="99"/>
       <c r="D16" s="99"/>
@@ -3446,7 +3332,7 @@
       <c r="L16" s="99"/>
       <c r="M16" s="104"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="103"/>
       <c r="C17" s="99"/>
       <c r="D17" s="99"/>
@@ -3460,7 +3346,7 @@
       <c r="L17" s="99"/>
       <c r="M17" s="104"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="103"/>
       <c r="C18" s="99"/>
       <c r="D18" s="99"/>
@@ -3474,7 +3360,7 @@
       <c r="L18" s="99"/>
       <c r="M18" s="104"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="103"/>
       <c r="C19" s="99"/>
       <c r="D19" s="99"/>
@@ -3488,7 +3374,7 @@
       <c r="L19" s="99"/>
       <c r="M19" s="104"/>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="103"/>
       <c r="C20" s="99"/>
       <c r="D20" s="99"/>
@@ -3502,10 +3388,10 @@
       <c r="L20" s="99"/>
       <c r="M20" s="104"/>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="103"/>
       <c r="C21" s="99" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="99"/>
       <c r="E21" s="99"/>
@@ -3518,10 +3404,10 @@
       <c r="L21" s="99"/>
       <c r="M21" s="104"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="103"/>
       <c r="C22" s="99" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="99"/>
       <c r="E22" s="99"/>
@@ -3534,7 +3420,7 @@
       <c r="L22" s="99"/>
       <c r="M22" s="104"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="103"/>
       <c r="C23" s="99"/>
       <c r="D23" s="99"/>
@@ -3548,7 +3434,7 @@
       <c r="L23" s="99"/>
       <c r="M23" s="104"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="103"/>
       <c r="C24" s="99"/>
       <c r="D24" s="99"/>
@@ -3562,7 +3448,7 @@
       <c r="L24" s="99"/>
       <c r="M24" s="104"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="103"/>
       <c r="C25" s="99"/>
       <c r="D25" s="99"/>
@@ -3576,11 +3462,11 @@
       <c r="L25" s="99"/>
       <c r="M25" s="104"/>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="103"/>
       <c r="C26" s="99"/>
       <c r="D26" s="99" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="99" t="s">
         <v>21</v>
@@ -3594,10 +3480,10 @@
       <c r="L26" s="99"/>
       <c r="M26" s="104"/>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="103"/>
       <c r="C27" s="99" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="99">
         <f>AVERAGE(1500,3000)</f>
@@ -3613,7 +3499,7 @@
       <c r="L27" s="99"/>
       <c r="M27" s="104"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="103"/>
       <c r="C28" s="99"/>
       <c r="D28" s="99"/>
@@ -3627,7 +3513,7 @@
       <c r="L28" s="99"/>
       <c r="M28" s="104"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="103"/>
       <c r="C29" s="99"/>
       <c r="D29" s="99"/>
@@ -3641,10 +3527,10 @@
       <c r="L29" s="99"/>
       <c r="M29" s="104"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="103"/>
       <c r="C30" s="99" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" s="99"/>
       <c r="E30" s="99"/>
@@ -3657,7 +3543,7 @@
       <c r="L30" s="99"/>
       <c r="M30" s="104"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="103"/>
       <c r="C31" s="99"/>
       <c r="D31" s="99"/>
@@ -3671,7 +3557,7 @@
       <c r="L31" s="99"/>
       <c r="M31" s="104"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="103"/>
       <c r="C32" s="99"/>
       <c r="D32" s="99"/>
@@ -3685,7 +3571,7 @@
       <c r="L32" s="99"/>
       <c r="M32" s="104"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B33" s="103"/>
       <c r="C33" s="99"/>
       <c r="D33" s="105">
@@ -3701,7 +3587,7 @@
       <c r="L33" s="99"/>
       <c r="M33" s="104"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B34" s="103"/>
       <c r="C34" s="99"/>
       <c r="D34" s="99"/>
@@ -3715,98 +3601,93 @@
       <c r="L34" s="99"/>
       <c r="M34" s="104"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B35" s="103"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B36" s="103"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B37" s="103"/>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B38" s="103"/>
       <c r="C38" s="119" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B39" s="103"/>
       <c r="C39" s="109" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B40" s="103"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B41" s="103"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="117"/>
       <c r="B42" s="118"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="117"/>
       <c r="B43" s="118"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="117"/>
       <c r="B44" s="118"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="117"/>
       <c r="B45" s="118"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="117"/>
       <c r="B46" s="118"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="117"/>
       <c r="B47" s="118"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="117"/>
       <c r="B48" s="118"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="117"/>
       <c r="B49" s="118"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="117"/>
       <c r="B50" s="118"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="117"/>
       <c r="B51" s="118"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D56" s="98">
         <v>2</v>
       </c>
       <c r="E56" s="109" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D57" s="98">
         <f>1/D56</f>
         <v>0.5</v>
       </c>
       <c r="E57" s="109" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/transport/transport_car_using_lpg.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_car_using_lpg.converter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="17540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16200" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="94">
   <si>
     <t>Source</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t xml:space="preserve">Fixed operational and maintenance </t>
-  </si>
-  <si>
-    <t>output.car_kms</t>
   </si>
   <si>
     <t xml:space="preserve">Technical lifetime </t>
@@ -315,6 +312,48 @@
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
+  </si>
+  <si>
+    <t>output.passenger_kms</t>
+  </si>
+  <si>
+    <t>pkm/MJ</t>
+  </si>
+  <si>
+    <t>Vehicle kilometers cars</t>
+  </si>
+  <si>
+    <t>CBS</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>http://statline.cbs.nl/Statweb/publication/?DM=SLNL&amp;PA=80302NED&amp;D1=a&amp;D2=a&amp;D3=25&amp;HDR=T,G2&amp;STB=G1&amp;VW=T</t>
+  </si>
+  <si>
+    <t>Passenger kilometers cars</t>
+  </si>
+  <si>
+    <t>http://statline.cbs.nl/Statweb/publication/?DM=SLNL&amp;PA=83497ned&amp;D1=0&amp;D2=a&amp;D3=0&amp;D4=5&amp;HDR=T,G3&amp;STB=G1,G2&amp;VW=T</t>
+  </si>
+  <si>
+    <t>vehicle km</t>
+  </si>
+  <si>
+    <t>mln vehicle km</t>
+  </si>
+  <si>
+    <t>passenger km</t>
+  </si>
+  <si>
+    <t>mld passenger km</t>
+  </si>
+  <si>
+    <t>passenger km/vehicle km</t>
+  </si>
+  <si>
+    <t>passenger km/MJ</t>
   </si>
 </sst>
 </file>
@@ -436,6 +475,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,6 +483,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -450,6 +491,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -457,17 +499,20 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -475,16 +520,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1048,7 +1096,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1181,9 +1229,6 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1200,9 +1245,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1255,6 +1297,12 @@
     <xf numFmtId="0" fontId="22" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="279">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1698,6 +1746,196 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>316173</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>158467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>36350</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>4113</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="Group 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8609273" y="17849567"/>
+          <a:ext cx="11277177" cy="4366846"/>
+          <a:chOff x="9231573" y="32137067"/>
+          <a:chExt cx="12902777" cy="4417646"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="Picture 6"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9231573" y="32137067"/>
+            <a:ext cx="12902777" cy="4417646"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Rectangle 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13195110" y="34022352"/>
+            <a:ext cx="1173708" cy="552735"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="Group 8"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8547100" y="23075900"/>
+          <a:ext cx="14605001" cy="4152900"/>
+          <a:chOff x="9702800" y="37896800"/>
+          <a:chExt cx="16776701" cy="4152900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="Picture 9"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9702800" y="37896800"/>
+            <a:ext cx="16776701" cy="4152900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Rectangle 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13367223" y="40003862"/>
+            <a:ext cx="1654792" cy="368490"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2147,10 +2385,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="16" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="16"/>
+    <col min="1" max="1" width="3.1640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="16" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -2176,16 +2414,16 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2210,7 +2448,7 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="57"/>
     </row>
@@ -2222,31 +2460,31 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="60" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="58"/>
       <c r="C12" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="58"/>
       <c r="C13" s="61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="58"/>
       <c r="C14" s="59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2257,58 +2495,58 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="62" t="s">
         <v>39</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="58"/>
       <c r="C17" s="63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="58"/>
       <c r="C18" s="64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="58"/>
       <c r="C19" s="65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="66"/>
       <c r="C20" s="67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="66"/>
       <c r="C21" s="68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="66"/>
       <c r="C22" s="69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="66"/>
       <c r="C23" s="70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2325,22 +2563,22 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="29" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" style="29" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="29" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="33.42578125" style="29" customWidth="1"/>
-    <col min="8" max="8" width="2.42578125" style="29" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="29" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" style="29" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="29"/>
+    <col min="1" max="1" width="3.33203125" style="29" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="29" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="29" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="29" customWidth="1"/>
+    <col min="7" max="7" width="33.5" style="29" customWidth="1"/>
+    <col min="8" max="8" width="2.5" style="29" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="29" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" style="29" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.2">
@@ -2350,37 +2588,37 @@
       <c r="G1" s="30"/>
     </row>
     <row r="2" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="127" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="129"/>
+      <c r="B2" s="125" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="30"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="130"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="132"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="30"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="130"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="130"/>
       <c r="G4" s="30"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="133"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="135"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="133"/>
       <c r="G5" s="30"/>
     </row>
     <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2432,7 +2670,7 @@
     <row r="10" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="13"/>
@@ -2445,22 +2683,22 @@
     <row r="11" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="39" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="123">
-        <f>'Research data'!G7</f>
-        <v>0.5</v>
+        <v>81</v>
+      </c>
+      <c r="E11" s="121">
+        <f>'Research data'!E7</f>
+        <v>0.66372376150097678</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="G11" s="124" t="s">
-        <v>74</v>
+      <c r="G11" s="122" t="s">
+        <v>73</v>
       </c>
       <c r="H11" s="25"/>
-      <c r="I11" s="125" t="s">
-        <v>78</v>
+      <c r="I11" s="123" t="s">
+        <v>77</v>
       </c>
       <c r="J11" s="14"/>
     </row>
@@ -2499,16 +2737,16 @@
         <v>1</v>
       </c>
       <c r="E14" s="35">
-        <f>'Research data'!G10</f>
+        <f>'Research data'!E10</f>
         <v>13</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="33"/>
       <c r="I14" s="81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J14" s="78"/>
     </row>
@@ -2557,33 +2795,31 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:P14"/>
+  <dimension ref="A2:N14"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.42578125" style="83" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" style="83" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="83" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="83" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="83" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="83" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" style="83" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="83" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" style="83" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" style="83" customWidth="1"/>
-    <col min="12" max="12" width="2.42578125" style="83" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" style="83" customWidth="1"/>
-    <col min="14" max="14" width="2.42578125" style="83" customWidth="1"/>
-    <col min="15" max="15" width="83.7109375" style="83" customWidth="1"/>
-    <col min="16" max="16384" width="10.7109375" style="83"/>
+    <col min="1" max="2" width="4.5" style="83" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" style="83" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="83" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="83" customWidth="1"/>
+    <col min="6" max="6" width="2.5" style="83" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="83" customWidth="1"/>
+    <col min="8" max="8" width="2.83203125" style="83" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="83" customWidth="1"/>
+    <col min="10" max="10" width="2.5" style="83" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="83" customWidth="1"/>
+    <col min="12" max="12" width="2.5" style="83" customWidth="1"/>
+    <col min="13" max="13" width="83.6640625" style="83" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="83"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" s="84"/>
       <c r="C3" s="85"/>
       <c r="D3" s="85"/>
@@ -2596,40 +2832,36 @@
       <c r="K3" s="85"/>
       <c r="L3" s="85"/>
       <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-    </row>
-    <row r="4" spans="1:16" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="18"/>
       <c r="C4" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="79" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="79" t="s">
         <v>9</v>
       </c>
+      <c r="E4" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="79"/>
       <c r="G4" s="79" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="H4" s="79"/>
       <c r="I4" s="79" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J4" s="79"/>
       <c r="K4" s="79" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="L4" s="79"/>
       <c r="M4" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="18"/>
       <c r="C5" s="9"/>
@@ -2644,200 +2876,180 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="18"/>
       <c r="C6" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
       <c r="M6" s="108"/>
-      <c r="N6" s="108"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="110"/>
-    </row>
-    <row r="7" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="N6" s="109"/>
+    </row>
+    <row r="7" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="18"/>
-      <c r="C7" s="111" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="113">
-        <f>M7</f>
-        <v>0.5</v>
-      </c>
-      <c r="L7" s="115"/>
-      <c r="M7" s="114">
-        <f>Notes!D57</f>
-        <v>0.5</v>
-      </c>
-      <c r="O7" s="108"/>
-      <c r="P7" s="110"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C7" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="111">
+        <f>K7</f>
+        <v>0.66372376150097678</v>
+      </c>
+      <c r="J7" s="113"/>
+      <c r="K7" s="112">
+        <f>Notes!E98</f>
+        <v>0.66372376150097678</v>
+      </c>
+      <c r="M7" s="107"/>
+      <c r="N7" s="109"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="86"/>
       <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
       <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
       <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="O8" s="82"/>
-    </row>
-    <row r="9" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="82"/>
+    </row>
+    <row r="9" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="86"/>
       <c r="C9" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
       <c r="J9" s="88"/>
       <c r="K9" s="88"/>
       <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="82"/>
-    </row>
-    <row r="10" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="82"/>
+    </row>
+    <row r="10" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="86"/>
       <c r="C10" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="91" t="s">
+      <c r="D10" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="92">
+      <c r="E10" s="92">
         <f>ROUND(13,0)</f>
         <v>13</v>
       </c>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="92">
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="92">
         <f>Notes!D9</f>
         <v>13</v>
       </c>
-      <c r="L10" s="116"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="88"/>
-      <c r="O10" s="82"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="82"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="86"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
       <c r="J11" s="88"/>
       <c r="K11" s="88"/>
       <c r="L11" s="88"/>
-      <c r="M11" s="88"/>
-      <c r="N11" s="88"/>
-      <c r="O11" s="82"/>
-    </row>
-    <row r="12" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="82"/>
+    </row>
+    <row r="12" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="86"/>
       <c r="C12" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
       <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="82" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="88"/>
+      <c r="M12" s="82" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="86"/>
       <c r="C13" s="94" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="95">
+      <c r="E13" s="95">
         <f>ROUND(19635,2)</f>
         <v>19635</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="95">
+      <c r="F13" s="11"/>
+      <c r="G13" s="95">
         <f>17643.06+Notes!D27</f>
         <v>19893.060000000001</v>
       </c>
-      <c r="J13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
       <c r="K13" s="89"/>
       <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="106" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="105" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="86"/>
       <c r="C14" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="97">
+      <c r="E14" s="96">
         <f>ROUND(532.8,2)</f>
         <v>532.79999999999995</v>
       </c>
-      <c r="H14" s="93"/>
-      <c r="I14" s="97">
+      <c r="F14" s="93"/>
+      <c r="G14" s="96">
         <f>444+(Notes!D33*444)</f>
         <v>532.79999999999995</v>
       </c>
-      <c r="J14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
       <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="82" t="s">
-        <v>53</v>
+      <c r="L14" s="89"/>
+      <c r="M14" s="82" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2851,24 +3063,24 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:G14"/>
+    <sheetView topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="40" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="40" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="40" customWidth="1"/>
-    <col min="6" max="7" width="13.28515625" style="40" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="46" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="40" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="40" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="40" customWidth="1"/>
+    <col min="6" max="7" width="13.33203125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="46" customWidth="1"/>
     <col min="9" max="9" width="33" style="46" customWidth="1"/>
-    <col min="10" max="10" width="98.42578125" style="40" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="40"/>
+    <col min="10" max="10" width="98.5" style="40" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -2922,13 +3134,13 @@
         <v>18</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H5" s="53" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J5" s="72" t="s">
         <v>10</v>
@@ -2949,7 +3161,7 @@
       <c r="B7" s="43"/>
       <c r="C7" s="54"/>
       <c r="D7" s="44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="44" t="s">
         <v>7</v>
@@ -2962,10 +3174,10 @@
       </c>
       <c r="H7" s="44"/>
       <c r="I7" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="107" t="s">
-        <v>54</v>
+        <v>68</v>
+      </c>
+      <c r="J7" s="106" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -3009,7 +3221,7 @@
       <c r="B11" s="43"/>
       <c r="C11" s="54"/>
       <c r="D11" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="44" t="s">
         <v>7</v>
@@ -3022,10 +3234,10 @@
       </c>
       <c r="H11" s="44"/>
       <c r="I11" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" s="80" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -3042,50 +3254,96 @@
       <c r="J12" s="80"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="119"/>
-      <c r="B13" s="120"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="119"/>
-      <c r="I13" s="119"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="117"/>
+      <c r="I13" s="117"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="119"/>
-      <c r="B14" s="120"/>
-      <c r="C14" s="121" t="s">
-        <v>74</v>
+      <c r="A14" s="117"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="119" t="s">
+        <v>73</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="119" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="119">
+      <c r="F14" s="117">
         <v>2014</v>
       </c>
-      <c r="G14" s="119">
+      <c r="G14" s="117">
         <v>2014</v>
       </c>
-      <c r="H14" s="126">
+      <c r="H14" s="124">
         <v>42326</v>
       </c>
-      <c r="I14" s="119" t="s">
-        <v>73</v>
+      <c r="I14" s="117" t="s">
+        <v>72</v>
       </c>
       <c r="J14" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="119"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="122"/>
+      <c r="A15" s="117"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+    </row>
+    <row r="16" spans="1:10" s="134" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="134" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="134" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="134" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="134">
+        <v>2015</v>
+      </c>
+      <c r="H16" s="135" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="135"/>
+      <c r="J16" s="134" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" s="134" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="135"/>
+      <c r="I17" s="135"/>
+    </row>
+    <row r="18" spans="3:10" s="134" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="134" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="134" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="134" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="134">
+        <v>2015</v>
+      </c>
+      <c r="H18" s="135" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="135"/>
+      <c r="J18" s="134" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3095,34 +3353,34 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M134"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="98" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="98" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="98" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="98"/>
+    <col min="1" max="1" width="4.83203125" style="97" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="97" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="97" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="97"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="100"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="102"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
     </row>
     <row r="3" spans="2:13" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="71"/>
@@ -3130,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="72"/>
       <c r="F3" s="72"/>
@@ -3143,547 +3401,745 @@
       <c r="M3" s="74"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="103"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="104"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="103"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="103"/>
-      <c r="C5" s="99" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="104"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="98"/>
+      <c r="M5" s="103"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="103"/>
-      <c r="C6" s="99" t="s">
+      <c r="B6" s="102"/>
+      <c r="C6" s="98" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="103"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="102"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="103"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B8" s="102"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="103"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B9" s="102"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98">
+        <v>13</v>
+      </c>
+      <c r="E9" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="104"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="103"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="104"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="103"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="104"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="103"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99">
-        <v>13</v>
-      </c>
-      <c r="E9" s="99" t="s">
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="103"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="102"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="103"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="102"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="103"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="102"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="103"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="102"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="103"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="102"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="98"/>
+      <c r="L14" s="98"/>
+      <c r="M14" s="103"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B15" s="102"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="103"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B16" s="102"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="103"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="102"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="103"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18" s="102"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="103"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="102"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="103"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="102"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="103"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="102"/>
+      <c r="C21" s="98" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="103"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22" s="102"/>
+      <c r="C22" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="104"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="103"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="104"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="103"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="104"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="103"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="104"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="103"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="104"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="103"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="104"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="103"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="104"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="103"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="104"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B17" s="103"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="104"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B18" s="103"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="104"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="103"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="104"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="103"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="104"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="103"/>
-      <c r="C21" s="99" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="104"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="103"/>
-      <c r="C22" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="104"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="103"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="103"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="104"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="98"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="103"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="103"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="104"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="103"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="103"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="104"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+      <c r="I25" s="98"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="98"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="103"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="103"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99" t="s">
+      <c r="B26" s="102"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+      <c r="I26" s="98"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="98"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="103"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B27" s="102"/>
+      <c r="C27" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="99" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="104"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="103"/>
-      <c r="C27" s="99" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="99">
+      <c r="D27" s="98">
         <f>AVERAGE(1500,3000)</f>
         <v>2250</v>
       </c>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="104"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="98"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="103"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B28" s="103"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="104"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="103"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B29" s="103"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="104"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+      <c r="I29" s="98"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="98"/>
+      <c r="L29" s="98"/>
+      <c r="M29" s="103"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B30" s="103"/>
-      <c r="C30" s="99" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="104"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="98"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="103"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="103"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="104"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="98"/>
+      <c r="M31" s="103"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="103"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="99"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="104"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98"/>
+      <c r="L32" s="98"/>
+      <c r="M32" s="103"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B33" s="103"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="105">
+      <c r="B33" s="102"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="104">
         <v>0.2</v>
       </c>
-      <c r="E33" s="105"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="103"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B34" s="103"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="99"/>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="99"/>
-      <c r="M34" s="104"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="98"/>
+      <c r="L34" s="98"/>
+      <c r="M34" s="103"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B35" s="103"/>
+      <c r="B35" s="102"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B36" s="103"/>
+      <c r="B36" s="102"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B37" s="103"/>
+      <c r="B37" s="102"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B38" s="103"/>
-      <c r="C38" s="119" t="s">
+      <c r="B38" s="102"/>
+      <c r="C38" s="117" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B39" s="102"/>
+      <c r="C39" s="108" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B40" s="102"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B41" s="102"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="115"/>
+      <c r="B42" s="116"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="115"/>
+      <c r="B43" s="116"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="115"/>
+      <c r="B44" s="116"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="115"/>
+      <c r="B45" s="116"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="115"/>
+      <c r="B46" s="116"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="115"/>
+      <c r="B47" s="116"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="115"/>
+      <c r="B48" s="116"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="115"/>
+      <c r="B49" s="116"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="115"/>
+      <c r="B50" s="116"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="115"/>
+      <c r="B51" s="116"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D56" s="97">
+        <v>2</v>
+      </c>
+      <c r="E56" s="108" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B39" s="103"/>
-      <c r="C39" s="109" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="103"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B41" s="103"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="117"/>
-      <c r="B42" s="118"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="117"/>
-      <c r="B43" s="118"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="117"/>
-      <c r="B44" s="118"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="117"/>
-      <c r="B45" s="118"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="117"/>
-      <c r="B46" s="118"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="117"/>
-      <c r="B47" s="118"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="117"/>
-      <c r="B48" s="118"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="117"/>
-      <c r="B49" s="118"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="117"/>
-      <c r="B50" s="118"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="117"/>
-      <c r="B51" s="118"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D56" s="98">
-        <v>2</v>
-      </c>
-      <c r="E56" s="109" t="s">
-        <v>76</v>
-      </c>
-    </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D57" s="98">
+      <c r="D57" s="97">
         <f>1/D56</f>
         <v>0.5</v>
       </c>
-      <c r="E57" s="109" t="s">
-        <v>71</v>
-      </c>
+      <c r="E57" s="108" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="2:6" s="40" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="43"/>
+      <c r="C89" s="136" t="s">
+        <v>83</v>
+      </c>
+      <c r="D89" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E89" s="137">
+        <v>105088.9</v>
+      </c>
+      <c r="F89" s="40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" s="40" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="43"/>
+      <c r="E90" s="40">
+        <f>E89*1000000</f>
+        <v>105088900000</v>
+      </c>
+      <c r="F90" s="40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" s="40" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="43"/>
+      <c r="D91" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E91" s="138">
+        <f>(97.3+42.2)</f>
+        <v>139.5</v>
+      </c>
+      <c r="F91" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="43"/>
+      <c r="E92" s="40">
+        <f>E91*1000000000</f>
+        <v>139500000000</v>
+      </c>
+      <c r="F92" s="40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="43"/>
+    </row>
+    <row r="94" spans="2:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="43"/>
+      <c r="E94" s="139">
+        <f>E92/E90</f>
+        <v>1.3274475230019536</v>
+      </c>
+      <c r="F94" s="40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="43"/>
+    </row>
+    <row r="96" spans="2:6" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="43"/>
+    </row>
+    <row r="97" spans="2:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="43"/>
+    </row>
+    <row r="98" spans="2:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="43"/>
+      <c r="D98" s="40" t="str">
+        <f>Dashboard!C11</f>
+        <v>output.passenger_kms</v>
+      </c>
+      <c r="E98" s="40">
+        <f>E94*D57</f>
+        <v>0.66372376150097678</v>
+      </c>
+      <c r="F98" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="H98" s="79" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="43"/>
+      <c r="H99" s="79"/>
+    </row>
+    <row r="100" spans="2:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="43"/>
+      <c r="H100" s="79"/>
+    </row>
+    <row r="101" spans="2:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="43"/>
+    </row>
+    <row r="102" spans="2:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="43"/>
+    </row>
+    <row r="103" spans="2:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="43"/>
+    </row>
+    <row r="104" spans="2:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="43"/>
+    </row>
+    <row r="105" spans="2:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="43"/>
+    </row>
+    <row r="106" spans="2:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="43"/>
+    </row>
+    <row r="107" spans="2:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="43"/>
+    </row>
+    <row r="108" spans="2:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="43"/>
+    </row>
+    <row r="109" spans="2:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="43"/>
+    </row>
+    <row r="110" spans="2:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="43"/>
+    </row>
+    <row r="111" spans="2:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="43"/>
+    </row>
+    <row r="112" spans="2:8" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="43"/>
+    </row>
+    <row r="113" spans="2:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="43"/>
+    </row>
+    <row r="114" spans="2:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="43"/>
+    </row>
+    <row r="115" spans="2:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B115" s="43"/>
+    </row>
+    <row r="116" spans="2:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="43"/>
+    </row>
+    <row r="117" spans="2:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="43"/>
+    </row>
+    <row r="118" spans="2:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="43"/>
+    </row>
+    <row r="119" spans="2:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="43"/>
+    </row>
+    <row r="120" spans="2:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="43"/>
+    </row>
+    <row r="121" spans="2:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="43"/>
+    </row>
+    <row r="122" spans="2:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="43"/>
+    </row>
+    <row r="123" spans="2:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="43"/>
+    </row>
+    <row r="124" spans="2:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="43"/>
+    </row>
+    <row r="125" spans="2:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="43"/>
+    </row>
+    <row r="126" spans="2:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="43"/>
+    </row>
+    <row r="127" spans="2:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="43"/>
+    </row>
+    <row r="128" spans="2:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="43"/>
+    </row>
+    <row r="129" spans="2:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="43"/>
+    </row>
+    <row r="130" spans="2:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="43"/>
+    </row>
+    <row r="131" spans="2:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="43"/>
+    </row>
+    <row r="132" spans="2:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="43"/>
+    </row>
+    <row r="133" spans="2:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="43"/>
+    </row>
+    <row r="134" spans="2:2" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
